--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0017-006 - Validasi screen dan mockup.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0017-006 - Validasi screen dan mockup.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E21764-C4D1-4093-9B69-762410CD3B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2B40E-CCE9-4499-AE61-53AD3A9211A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0276" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0017" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,12 +101,12 @@
     <t xml:space="preserve">Validasi screen dan mockup </t>
   </si>
   <si>
-    <t>DGS-291</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -	screen dan mockup Fungsi Family Tree Flagging sesuai dengan bsdd point 2.5
 Misal:
 Apabila data yang di centang adalah sebagai berikut:</t>
+  </si>
+  <si>
+    <t>SCD0017-006</t>
   </si>
 </sst>
 </file>
@@ -511,13 +511,13 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -603,7 +603,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2">
         <v>35758</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -639,7 +639,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="7">
         <v>35795</v>
